--- a/Research/Glyphosate_HI.xlsx
+++ b/Research/Glyphosate_HI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\moops\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E6E42-08A9-4990-81AB-15EF25A340EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3BD55D-3ED5-4799-A7BC-172EFAE3F15C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{A053033E-1502-4B0B-A0CC-826F179C2ACF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="1" xr2:uid="{A053033E-1502-4B0B-A0CC-826F179C2ACF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Days</t>
   </si>
@@ -40,15 +41,169 @@
   <si>
     <t>ln C(t)</t>
   </si>
+  <si>
+    <t>Q lliter/m2</t>
+  </si>
+  <si>
+    <r>
+      <t>The equation for degradation is C[t]=C[t-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Δt]exp (-0.69t/t1/2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which can be rewritten as m[t]=m[t-Δt]exp (-0.69t/t1/2)</t>
+    </r>
+  </si>
+  <si>
+    <t>The equation for decrease in concetration in  runoff  is C[t]=C[t-Δt]exp (-Q/W) which can also be written as m[t]=m[t-Δt]exp (-Q/W)</t>
+  </si>
+  <si>
+    <t>the concentration pf pesticide in runoff  is C=m/Q ; the concentration pf pesticide on straw is C=m/W1</t>
+  </si>
+  <si>
+    <t>observed</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>Concentrations</t>
+  </si>
+  <si>
+    <t>imital mass</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>mass after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass after </t>
+  </si>
+  <si>
+    <t>concetration</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>degradation</t>
+  </si>
+  <si>
+    <t>runoff</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">final </t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>coeffi</t>
+  </si>
+  <si>
+    <t>g/m2</t>
+  </si>
+  <si>
+    <t>ppb</t>
+  </si>
+  <si>
+    <t>pbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time </t>
+  </si>
+  <si>
+    <t>t1/2</t>
+  </si>
+  <si>
+    <t>halflife for pesiticide</t>
+  </si>
+  <si>
+    <t>w first runoff</t>
+  </si>
+  <si>
+    <t>liter/m2</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>apparent water comtent straw for runoff calculation (includes nothw ater and adsorption)</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>apparent water comtent straw for runoff calculation (should be the same as above0</t>
+  </si>
+  <si>
+    <t>conv g/m2 to ppb</t>
+  </si>
+  <si>
+    <t>Concentration (ppb)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,8 +229,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,7 +403,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -293,7 +451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Data!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -798,7 +956,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -846,7 +1004,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>Data!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1351,7 +1509,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1399,7 +1557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Data!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1747,6 +1905,834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$32:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$32:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4925292964778586E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3520725369027749E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5916157716017062E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.407532049362384E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6359148299646645E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.350639159320234E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1172574321512575E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2400941075164551E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B05-476D-B846-7A8F3811D97B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Observed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$7:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B05-476D-B846-7A8F3811D97B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1729243584"/>
+        <c:axId val="1733789728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1729243584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1733789728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1733789728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729243584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$32:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$32:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4925292964778586E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3520725369027749E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5916157716017062E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.407532049362384E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6359148299646645E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.350639159320234E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1172574321512575E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2400941075164551E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C057-4A8B-B663-F66966F56283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1849701024"/>
+        <c:axId val="1733773904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1849701024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1733773904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1733773904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1849701024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1867,6 +2853,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2900,6 +3966,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3522,6 +5620,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E85583B-B9B4-4BC2-9175-5EDB7ABFD27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCBC75D-C56E-463A-AAEB-69D088A71F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3829,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596DCFCD-53FB-4A7F-8E42-92BB7B8044CC}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,4 +6190,674 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DCA4EE-8A16-4109-9FDA-8A1361A2263E}">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>2/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ref="A9:A10" si="0">2/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>14*3</f>
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ref="A15:A16" si="1">14*3</f>
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>14*6</f>
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:A19" si="2">14*6</f>
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <f>0.69/B22</f>
+        <v>1.38E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.13</v>
+      </c>
+      <c r="F32">
+        <v>0.13</v>
+      </c>
+      <c r="H32" s="3">
+        <f>+G33</f>
+        <v>6500.0000000000009</v>
+      </c>
+      <c r="L32">
+        <f>+A32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <f>+H32</f>
+        <v>6500.0000000000009</v>
+      </c>
+      <c r="N32">
+        <f>M32/100000</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>2/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <f>+F32</f>
+        <v>0.13</v>
+      </c>
+      <c r="D33">
+        <f>+D$22*(A32-A33)</f>
+        <v>-1.15E-3</v>
+      </c>
+      <c r="E33">
+        <f>+C33*EXP(D33)</f>
+        <v>0.12985058592955717</v>
+      </c>
+      <c r="F33">
+        <f>+E33*EXP(-B33/B$23)</f>
+        <v>8.7041450738055498E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <f>+C33/B$23*B$26</f>
+        <v>6500.0000000000009</v>
+      </c>
+      <c r="H33" s="3">
+        <f>+E33/B$23*B$26</f>
+        <v>6492.5292964778582</v>
+      </c>
+      <c r="I33" s="3">
+        <f>+E33/B$23*B$26</f>
+        <v>6492.5292964778582</v>
+      </c>
+      <c r="J33" s="3">
+        <f>+F33/B$23*B$26</f>
+        <v>4352.072536902775</v>
+      </c>
+      <c r="L33">
+        <f>+A33</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M33" s="3">
+        <f>+H33</f>
+        <v>6492.5292964778582</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N40" si="3">M33/100000</f>
+        <v>6.4925292964778586E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f>+F33</f>
+        <v>8.7041450738055498E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D36" si="4">+D$22*(A33-A34)</f>
+        <v>-0.19205</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E36" si="5">+C34*EXP(D34)</f>
+        <v>7.1832315432034125E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F36" si="6">+E34*EXP(-B34/B$24)</f>
+        <v>4.8150640987247681E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <f>+C34/B$25*B$26</f>
+        <v>4352.072536902775</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ref="H34:H35" si="7">+E34/B$25*B$26</f>
+        <v>3591.6157716017065</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" ref="I34" si="8">+E34/B$24*B$26</f>
+        <v>3591.6157716017065</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" ref="J34:J36" si="9">+F34/B$24*B$26</f>
+        <v>2407.532049362384</v>
+      </c>
+      <c r="L34">
+        <f>+A33</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M34" s="3">
+        <f>+J33</f>
+        <v>4352.072536902775</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>4.3520725369027749E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C36" si="10">+F34</f>
+        <v>4.8150640987247681E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>-0.38639999999999997</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>3.2718296599293289E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>1.4701278318640466E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ref="G35:G36" si="11">+C35/B$25*B$26</f>
+        <v>2407.532049362384</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="7"/>
+        <v>1635.9148299646645</v>
+      </c>
+      <c r="I35" s="3">
+        <f>+E35/B$24*B$26</f>
+        <v>1635.9148299646645</v>
+      </c>
+      <c r="J35" s="3">
+        <f>+F35/B$24*B$26</f>
+        <v>735.06391593202341</v>
+      </c>
+      <c r="L35">
+        <f>+A34</f>
+        <v>14</v>
+      </c>
+      <c r="M35" s="3">
+        <f>+H34</f>
+        <v>3591.6157716017065</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>3.5916157716017062E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>84</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="10"/>
+        <v>1.4701278318640466E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>-0.5796</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>8.234514864302515E-3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>2.4801882150329102E-3</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="11"/>
+        <v>735.06391593202341</v>
+      </c>
+      <c r="H36" s="3">
+        <f>+E36/B$25*B$26</f>
+        <v>411.72574321512576</v>
+      </c>
+      <c r="I36" s="3">
+        <f>+E36/B$24*B$26</f>
+        <v>411.72574321512576</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="9"/>
+        <v>124.00941075164552</v>
+      </c>
+      <c r="L36">
+        <f>+L35</f>
+        <v>14</v>
+      </c>
+      <c r="M36" s="3">
+        <f>+J34</f>
+        <v>2407.532049362384</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>2.407532049362384E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f>+A35</f>
+        <v>42</v>
+      </c>
+      <c r="M37" s="3">
+        <f>+H35</f>
+        <v>1635.9148299646645</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>1.6359148299646645E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f>+L37</f>
+        <v>42</v>
+      </c>
+      <c r="M38" s="3">
+        <f>+J35</f>
+        <v>735.06391593202341</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>7.350639159320234E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L39" s="3">
+        <f>+A36</f>
+        <v>84</v>
+      </c>
+      <c r="M39" s="3">
+        <f>+H36</f>
+        <v>411.72574321512576</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>4.1172574321512575E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L40" s="3">
+        <f>+L39</f>
+        <v>84</v>
+      </c>
+      <c r="M40" s="3">
+        <f>+J36</f>
+        <v>124.00941075164552</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>1.2400941075164551E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Research/Glyphosate_HI.xlsx
+++ b/Research/Glyphosate_HI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\moops\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3BD55D-3ED5-4799-A7BC-172EFAE3F15C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2669792C-CA86-47CE-88D0-1297E8BF0527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="1" xr2:uid="{A053033E-1502-4B0B-A0CC-826F179C2ACF}"/>
   </bookViews>
@@ -6004,7 +6004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596DCFCD-53FB-4A7F-8E42-92BB7B8044CC}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -6196,7 +6196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DCA4EE-8A16-4109-9FDA-8A1361A2263E}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
